--- a/biology/Botanique/Verpa/Verpa.xlsx
+++ b/biology/Botanique/Verpa/Verpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Verpes
 Les verpes sont un genre (Verpa) de champignons de la famille des Morchellaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leurs spores sont blanches, leur hyménium peut être lisse ou fortement ridé. Leur vallécule est très profonde. Ils sont saprophytes.
 </t>
@@ -543,16 +557,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum                                      (2 novembre 2013)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum                                      (2 novembre 2013) :
 Verpa agaricoides (DC.) Pers. 1822
 Verpa atroalba Fr. 1822
 Verpa bispora (Sorokīn) Lagarde 1924
-Verpa bohemica (Krombh.) J. Schröt. 1893 (syn. Ptychoverpa bohemica (Krombh.) Boud., 1907 — Verpe de Bohême[2]
+Verpa bohemica (Krombh.) J. Schröt. 1893 (syn. Ptychoverpa bohemica (Krombh.) Boud., 1907 — Verpe de Bohême
 Verpa candida Sw. 1814
 Verpa chicoensis Copel. 1904
-Verpa conica (O.F. Müll.) Sw. 1815 — Verpe[3], Verpe conique[2], Verpe en forme de dé[4], Verpe en doigt de gant[5], Verpe en forme de doigt de gant[4]
+Verpa conica (O.F. Müll.) Sw. 1815 — Verpe, Verpe conique, Verpe en forme de dé, Verpe en doigt de gant, Verpe en forme de doigt de gant
 Verpa digitaliformis Pers. 1822
 Verpa dubia Lév. 1846
 Verpa ferruginea (Sowerby) Wallr. 1833
